--- a/Tables/Обращения.xlsx
+++ b/Tables/Обращения.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\learner\Desktop\graduationwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\learner\Desktop\graduationwork\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20007288-635A-412B-920C-AF2A8ED6C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF963FC-4692-4C14-9546-629DD39F2E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{9EAD1F50-8B21-475F-A63F-DF284EE3B482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EAD1F50-8B21-475F-A63F-DF284EE3B482}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Обращения пациентов</t>
   </si>
@@ -51,25 +51,10 @@
     <t>Отчество</t>
   </si>
   <si>
-    <t>Телефон</t>
-  </si>
-  <si>
     <t>Гендер</t>
   </si>
   <si>
     <t>Область</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Район</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Паспорт</t>
   </si>
   <si>
     <t>Дата рождения</t>
@@ -146,15 +131,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,80 +461,70 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
